--- a/P0016/09_FICHAS/N3-FD-General.xlsx
+++ b/P0016/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0016\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B948701-9EBE-40BB-8BB6-914CA997D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{3B948701-9EBE-40BB-8BB6-914CA997D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC98840-606E-488D-95B3-2F75432CB950}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -81,22 +92,22 @@
     <t>PR1003</t>
   </si>
   <si>
-    <t>R0001</t>
-  </si>
-  <si>
-    <t>Anexos producto 1</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016_New/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1</t>
-  </si>
-  <si>
-    <t>Modelación matemática hidráulica y de calidad del agua del sistema hídrico de La Mojana , dentro del convenio interadministrativo Un-DNP No. 336/2011</t>
-  </si>
-  <si>
-    <t>Insumos requeridos para la elaboración del modelo matemático, contienen la descripción detallada del modelo, datos para el montaje y aplicación, calibración hidráulica e hidrológica del sistema y actividades de simulación de escenarios.</t>
-  </si>
-  <si>
-    <t>Mapas, datos del modelo, Ecuaciones del modelo.</t>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>Mapa 1-1. Cotas cero</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016_New/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Mapa 1-1. Cotas cero,pdf</t>
+  </si>
+  <si>
+    <t>IDEAM</t>
+  </si>
+  <si>
+    <t>Mapa de cotas cero disponibles y estaciones hidrométricas por el IDEAM en la región de la mojana escala 1:300.000</t>
+  </si>
+  <si>
+    <t>Mapas</t>
   </si>
   <si>
     <t>pdf</t>
@@ -105,93 +116,65 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Aunque se encuentra toda la información relacionada para formular y calibrar el modelo, no se cuenta con el ejecutable.</t>
-  </si>
-  <si>
-    <t>Modelo matemático, SIMULINK, Calibración hidráulica, Sistema hídrico, Calibración hidrológica, Simulación, Escenarios, Caños, Obra hidráulica, Canales, Cota, Abscisado, Polígono Thiessen, Curva de capacidad, Estudio Hidroclimatológico</t>
-  </si>
-  <si>
-    <t>PR1004</t>
-  </si>
-  <si>
-    <t>R0002</t>
-  </si>
-  <si>
-    <t>Anexos producto 2</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016_New/02_PRODUCTOS/PRODUCTO 1/Anexos producto 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convenio interadministrativo Un-DNP No. 336/2011 para los estudios, análisis y recomendaciones para el Ordenamiento ambiental y el desarrollo territorial de La Mojana. </t>
-  </si>
-  <si>
-    <t>Ensayos de Laboratorio para realizar la evaluación del Dique Marginal.</t>
-  </si>
-  <si>
-    <t>Ensayo de Laboratorio</t>
-  </si>
-  <si>
-    <t>Este insumo aporta en la definición del comportamiento de los materiales ante la presencia del agua como agente erosivo en los procesos de rompimiento.</t>
-  </si>
-  <si>
-    <t>Geotecnia, Geomorfología, Rompedero, Caudal, Suelo, Caregato, Boca del Cura, Santa Anita, Laredo, Nuevo Mundo</t>
-  </si>
-  <si>
-    <t>PR1005</t>
-  </si>
-  <si>
-    <t>R0003</t>
-  </si>
-  <si>
-    <t>Anexos producto 3</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016_New/02_PRODUCTOS/PRODUCTO 1/Anexos producto 3</t>
-  </si>
-  <si>
-    <t>Estudios de caracterización in situ de la calidad del agua, geomorfología, dinámica fluvial y estado limnológico como insumos para la evaluación a nivel de pre-factibilidad de la viabilidad de la construcción del canal paralelo a la vía Achí – Majagual – San Marcos en la región de la Mojana.</t>
-  </si>
-  <si>
-    <t>Caracterización</t>
-  </si>
-  <si>
-    <t>Sin observaciones</t>
-  </si>
-  <si>
-    <t>Calidad del agua in situ, Geomorfología fluvial, Dinámica fluvial, Estado limnológico, Evaluación de pre-factibilidad, Viabilidad de construcción, Canal paralelo, Vía Achí – Majagual – San Marcos, Región de la Mojana, Estudios de caracterización_x000D_
-Impacto ambiental, Recursos hídricos, Ingeniería hidráulica,Gestión de cuencas, Riesgo hidrológico.</t>
-  </si>
-  <si>
-    <t>PR1006</t>
-  </si>
-  <si>
-    <t>R0004</t>
-  </si>
-  <si>
-    <t>Anexos producto 4</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016_New/02_PRODUCTOS/PRODUCTO 1/Anexos producto 4</t>
-  </si>
-  <si>
-    <t>Aforos del Caño gramalote utilizados para la caracterización física de los caños de la baja y media Mojana.</t>
-  </si>
-  <si>
-    <t>Serie de datos (Áforos)</t>
-  </si>
-  <si>
-    <t>No se encontraron más series de aforos para los demás caños</t>
-  </si>
-  <si>
-    <t>Caño gramalote, aforo, Caudal, Área</t>
+    <t>Información relevante para modelaciones hidrodinámicas</t>
+  </si>
+  <si>
+    <t>Cota cero, 2012, escala 1:300000, estación limnimétrica, estación limnigráfica</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>Mapa 1-2. Abscisado</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Mapa 1-2. Abscisado.pdf</t>
+  </si>
+  <si>
+    <t>Mapa del abscisado del modelo hidrologico e hidraulico en la region de la mojana, escala 1:300.000</t>
+  </si>
+  <si>
+    <t>Hidrología, hidraulica, abscisa, La Mojana, vertedero, drenaje</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>Mapa 1-3. PoligonosThiessen</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS\PRODUCTO 1/Anexos producto 1/Mapa 1-3. PoligonosThiessen.pdf</t>
+  </si>
+  <si>
+    <t>Mapa subcuencas y distribución espacial de la precipitación en la región de La Mojana</t>
+  </si>
+  <si>
+    <t>Información de precipitación</t>
+  </si>
+  <si>
+    <t>Precipitación, La Mojana, subcuencas, polígono thiessen</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>Mapa 1-4. Alternativa de manejo</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Mapa 1-4. Alternativa de manejo.pdf</t>
+  </si>
+  <si>
+    <t>Mapa alternativa de manejo propuesta modelada matemáticamente para La Mojana</t>
+  </si>
+  <si>
+    <t>modelo matemático, drenaje, vertedero, La Mojana, abscisado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,12 +218,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,15 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P5"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -589,25 +569,25 @@
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>2012</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -622,142 +602,142 @@
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3">
+        <v>2012</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>2012</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="P4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="1">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5">
         <v>2012</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -772,12 +752,15 @@
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P0016/09_FICHAS/N3-FD-General.xlsx
+++ b/P0016/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0016\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0016/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{3B948701-9EBE-40BB-8BB6-914CA997D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC98840-606E-488D-95B3-2F75432CB950}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{3B948701-9EBE-40BB-8BB6-914CA997D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6ACC2D-A1FC-402D-89CC-A848C2D6DDD4}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Mapa 1-1. Cotas cero</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016_New/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Mapa 1-1. Cotas cero,pdf</t>
-  </si>
-  <si>
     <t>IDEAM</t>
   </si>
   <si>
@@ -168,13 +165,16 @@
   </si>
   <si>
     <t>modelo matemático, drenaje, vertedero, La Mojana, abscisado</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Mapa 1-1. Cotas cero.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,9 +218,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,6 +237,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,12 +509,15 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -572,44 +580,44 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F2">
         <v>2012</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -617,49 +625,49 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
       </c>
       <c r="F3">
         <v>2012</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -667,49 +675,49 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
       </c>
       <c r="F4">
         <v>2012</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>37</v>
       </c>
-      <c r="P4" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -717,49 +725,49 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
       </c>
       <c r="F5">
         <v>2012</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
   </sheetData>

--- a/P0016/09_FICHAS/N3-FD-General.xlsx
+++ b/P0016/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0016/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{3B948701-9EBE-40BB-8BB6-914CA997D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6ACC2D-A1FC-402D-89CC-A848C2D6DDD4}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{3B948701-9EBE-40BB-8BB6-914CA997D12D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C909959-F462-8E4B-A773-E0C32DEA480D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -140,9 +138,6 @@
     <t>Mapa 1-3. PoligonosThiessen</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS\PRODUCTO 1/Anexos producto 1/Mapa 1-3. PoligonosThiessen.pdf</t>
-  </si>
-  <si>
     <t>Mapa subcuencas y distribución espacial de la precipitación en la región de La Mojana</t>
   </si>
   <si>
@@ -168,6 +163,9 @@
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Mapa 1-1. Cotas cero.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0016/02_PRODUCTOS/PRODUCTO 1/Anexos producto 1/Mapa 1-3. PoligonosThiessen.pdf</t>
   </si>
 </sst>
 </file>
@@ -237,10 +235,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,15 +503,15 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.58984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -581,7 +575,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>2012</v>
@@ -617,7 +611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -667,7 +661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -681,7 +675,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>2012</v>
@@ -690,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -711,13 +705,13 @@
         <v>24</v>
       </c>
       <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
         <v>36</v>
       </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -725,13 +719,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
       </c>
       <c r="F5">
         <v>2012</v>
@@ -740,7 +734,7 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -764,10 +758,10 @@
         <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
     </row>
   </sheetData>
